--- a/formats/excel/Formats UM 20.xlsx
+++ b/formats/excel/Formats UM 20.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/R/pmeasyr_/R/formats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Documents/Developpements/Github/formats_pmeasyr/formats/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF8D6C9-C83E-2D49-99FB-47CA92A4B153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="27400" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="3100" yWindow="8840" windowWidth="27400" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -89,9 +96,6 @@
     <t>Finess géo</t>
   </si>
   <si>
-    <t>N° de l'UM</t>
-  </si>
-  <si>
     <t>Type autorisation</t>
   </si>
   <si>
@@ -111,12 +115,15 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>N° séquentiel de l'UM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -157,6 +164,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -424,11 +434,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="A12:XFD12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,7 +464,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -475,7 +485,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -496,7 +506,7 @@
         <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -517,7 +527,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -538,7 +548,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -559,7 +569,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -577,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -598,10 +608,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -619,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -640,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -660,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
